--- a/output/2.2结果.xlsx
+++ b/output/2.2结果.xlsx
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>114.79613262</v>
+        <v>133.0575564</v>
       </c>
       <c r="C153" t="n">
-        <v>16.2898</v>
+        <v>13.7021</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -6058,21 +6058,21 @@
         <v>2024</v>
       </c>
       <c r="F153" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G153" t="n">
-        <v>1.338740624426859</v>
+        <v>1.311359843135949</v>
       </c>
       <c r="H153" t="n">
-        <v>3444.278</v>
+        <v>4031.2024</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>3.332952003874252</v>
+        <v>3.300691535607342</v>
       </c>
     </row>
     <row r="154">
@@ -6082,10 +6082,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>73.16228359</v>
+        <v>87.74072461</v>
       </c>
       <c r="C154" t="n">
-        <v>17.354</v>
+        <v>17.0866</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -6096,13 +6096,13 @@
         <v>2024</v>
       </c>
       <c r="F154" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G154" t="n">
-        <v>0.8532109835266987</v>
+        <v>0.8647360283343071</v>
       </c>
       <c r="H154" t="n">
-        <v>875.1133</v>
+        <v>1020.8564</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>8.360321296682384</v>
+        <v>8.594815549963736</v>
       </c>
     </row>
     <row r="155">
@@ -6120,10 +6120,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>26.11073188</v>
+        <v>30.94555157</v>
       </c>
       <c r="C155" t="n">
-        <v>-3.3197</v>
+        <v>-7.3976</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -6134,21 +6134,21 @@
         <v>2024</v>
       </c>
       <c r="F155" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G155" t="n">
-        <v>0.3045006543642349</v>
+        <v>0.30498646413283</v>
       </c>
       <c r="H155" t="n">
-        <v>232.4529</v>
+        <v>280.0762</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>11.23269784115406</v>
+        <v>11.0489758037277</v>
       </c>
     </row>
     <row r="156">
@@ -6158,10 +6158,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>5912.5314291</v>
+        <v>6982.39248716</v>
       </c>
       <c r="C156" t="n">
-        <v>0.796</v>
+        <v>1.2026</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -6172,21 +6172,21 @@
         <v>2024</v>
       </c>
       <c r="F156" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G156" t="n">
-        <v>68.95132995062011</v>
+        <v>68.81555143812759</v>
       </c>
       <c r="H156" t="n">
-        <v>71413.3095</v>
+        <v>84102.6185</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>8.279313016714344</v>
+        <v>8.302229599617045</v>
       </c>
     </row>
     <row r="157">
@@ -6196,10 +6196,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>689.7972740500001</v>
+        <v>806.47786964</v>
       </c>
       <c r="C157" t="n">
-        <v>8.9613</v>
+        <v>7.0951</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -6210,21 +6210,21 @@
         <v>2024</v>
       </c>
       <c r="F157" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G157" t="n">
-        <v>8.044344459290221</v>
+        <v>7.948309898645668</v>
       </c>
       <c r="H157" t="n">
-        <v>6837.7285</v>
+        <v>8158.7571</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>10.08810563405669</v>
+        <v>9.884812842877746</v>
       </c>
     </row>
     <row r="158">
@@ -6234,10 +6234,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>259.64305317</v>
+        <v>313.56039829</v>
       </c>
       <c r="C158" t="n">
-        <v>-15.383</v>
+        <v>-13.1971</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -6248,21 +6248,21 @@
         <v>2024</v>
       </c>
       <c r="F158" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G158" t="n">
-        <v>3.027930429324789</v>
+        <v>3.090320654011499</v>
       </c>
       <c r="H158" t="n">
-        <v>2599.1805</v>
+        <v>3116.2189</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>9.989419864068696</v>
+        <v>10.06220706414431</v>
       </c>
     </row>
     <row r="159">
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>190.84299074</v>
+        <v>215.15252775</v>
       </c>
       <c r="C159" t="n">
-        <v>-7.809</v>
+        <v>-5.5042</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -6286,21 +6286,21 @@
         <v>2024</v>
       </c>
       <c r="F159" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G159" t="n">
-        <v>2.225591217750179</v>
+        <v>2.120453679401426</v>
       </c>
       <c r="H159" t="n">
-        <v>1934.7408</v>
+        <v>2315.8501</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>-12.4</t>
+          <t>-9.8</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>9.864008178253128</v>
+        <v>9.290434115316875</v>
       </c>
     </row>
     <row r="160">
@@ -6310,10 +6310,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>153.35037554</v>
+        <v>175.03658324</v>
       </c>
       <c r="C160" t="n">
-        <v>-44.8145</v>
+        <v>-43.1828</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -6324,21 +6324,21 @@
         <v>2024</v>
       </c>
       <c r="F160" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G160" t="n">
-        <v>1.788356217417953</v>
+        <v>1.725087642904126</v>
       </c>
       <c r="H160" t="n">
-        <v>3882.8122</v>
+        <v>4547.3658</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>-1.7</t>
+          <t>-1.3</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>3.94946671744773</v>
+        <v>3.849186340804164</v>
       </c>
     </row>
     <row r="161">
@@ -6348,10 +6348,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>28.20802917</v>
+        <v>32.38213926</v>
       </c>
       <c r="C161" t="n">
-        <v>-49.0453</v>
+        <v>-48.2172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -6362,21 +6362,21 @@
         <v>2024</v>
       </c>
       <c r="F161" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G161" t="n">
-        <v>0.3289591184217096</v>
+        <v>0.3191448739126254</v>
       </c>
       <c r="H161" t="n">
-        <v>1253.5122</v>
+        <v>1437.5316</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>-30.5</t>
+          <t>-29.2</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>2.250319475949257</v>
+        <v>2.252621038730557</v>
       </c>
     </row>
     <row r="162">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>893.3643534600001</v>
+        <v>1056.88623464</v>
       </c>
       <c r="C162" t="n">
-        <v>7.2503</v>
+        <v>4.6204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -6400,21 +6400,21 @@
         <v>2024</v>
       </c>
       <c r="F162" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G162" t="n">
-        <v>10.41832268296616</v>
+        <v>10.41623042214575</v>
       </c>
       <c r="H162" t="n">
-        <v>5427.4396</v>
+        <v>6409.143</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>25.6</t>
+          <t>25.8</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>16.46014362757717</v>
+        <v>16.4902894917464</v>
       </c>
     </row>
     <row r="163">
@@ -6424,10 +6424,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>563.86665512</v>
+        <v>672.98414544</v>
       </c>
       <c r="C163" t="n">
-        <v>-26.0826</v>
+        <v>-24.2923</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -6438,21 +6438,21 @@
         <v>2024</v>
       </c>
       <c r="F163" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G163" t="n">
-        <v>6.575754607235941</v>
+        <v>6.632651367383587</v>
       </c>
       <c r="H163" t="n">
-        <v>2942.0992</v>
+        <v>3484.9061</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>26.4</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>19.16545353467347</v>
+        <v>19.31139967989381</v>
       </c>
     </row>
     <row r="164">
@@ -6462,10 +6462,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>286.54936048</v>
+        <v>331.16090838</v>
       </c>
       <c r="C164" t="n">
-        <v>9.5166</v>
+        <v>6.9595</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -6476,21 +6476,21 @@
         <v>2024</v>
       </c>
       <c r="F164" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G164" t="n">
-        <v>3.341709002061608</v>
+        <v>3.26378394895846</v>
       </c>
       <c r="H164" t="n">
-        <v>3246.0074</v>
+        <v>3809.3502</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>8.827748220167335</v>
+        <v>8.6933700235804</v>
       </c>
     </row>
     <row r="165">
@@ -6500,10 +6500,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>137.90439422</v>
+        <v>163.62252223</v>
       </c>
       <c r="C165" t="n">
-        <v>1.911</v>
+        <v>2.6653</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -6514,21 +6514,21 @@
         <v>2024</v>
       </c>
       <c r="F165" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G165" t="n">
-        <v>1.608226780952776</v>
+        <v>1.612595412770117</v>
       </c>
       <c r="H165" t="n">
-        <v>1040.8773</v>
+        <v>1226.9102</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>13.24886172654548</v>
+        <v>13.33614491345821</v>
       </c>
     </row>
     <row r="166">
@@ -6538,10 +6538,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>68.83391098</v>
+        <v>81.69908961</v>
       </c>
       <c r="C166" t="n">
-        <v>10.4183</v>
+        <v>11.8937</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -6552,21 +6552,21 @@
         <v>2024</v>
       </c>
       <c r="F166" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G166" t="n">
-        <v>0.8027339498635109</v>
+        <v>0.8051921907632403</v>
       </c>
       <c r="H166" t="n">
-        <v>655.0396</v>
+        <v>769.9732</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>10.50835872823567</v>
+        <v>10.61064068333807</v>
       </c>
     </row>
     <row r="167">
@@ -6576,10 +6576,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2717.01200407</v>
+        <v>3200.05815488</v>
       </c>
       <c r="C167" t="n">
-        <v>-1.9395</v>
+        <v>-2.436</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -6590,21 +6590,21 @@
         <v>2024</v>
       </c>
       <c r="F167" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G167" t="n">
-        <v>31.68551295142005</v>
+        <v>31.53844000707464</v>
       </c>
       <c r="H167" t="n">
-        <v>29236.2487</v>
+        <v>34528.3742</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>9.293298986302576</v>
+        <v>9.267908579605235</v>
       </c>
     </row>
     <row r="168">
@@ -6614,10 +6614,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>208.92860795</v>
+        <v>246.26296309</v>
       </c>
       <c r="C168" t="n">
-        <v>10.1564</v>
+        <v>10.7124</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -6628,21 +6628,21 @@
         <v>2024</v>
       </c>
       <c r="F168" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G168" t="n">
-        <v>2.436503814928059</v>
+        <v>2.427065169279603</v>
       </c>
       <c r="H168" t="n">
-        <v>1638.8027</v>
+        <v>1922.6441</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>12.74885670801006</v>
+        <v>12.80855687695918</v>
       </c>
     </row>
     <row r="169">
@@ -6652,10 +6652,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>468.05135059</v>
+        <v>560.9600741200001</v>
       </c>
       <c r="C169" t="n">
-        <v>-28.7352</v>
+        <v>-27.1547</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -6666,21 +6666,21 @@
         <v>2024</v>
       </c>
       <c r="F169" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G169" t="n">
-        <v>5.458366436671439</v>
+        <v>5.528588790493775</v>
       </c>
       <c r="H169" t="n">
-        <v>1671.1001</v>
+        <v>1951.9144</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>25.9</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>28.00857654128559</v>
+        <v>28.73896898962373</v>
       </c>
     </row>
     <row r="170">
@@ -6690,10 +6690,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>63.67335593</v>
+        <v>74.86067558000001</v>
       </c>
       <c r="C170" t="n">
-        <v>27.9021</v>
+        <v>25.4198</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -6704,21 +6704,21 @@
         <v>2024</v>
       </c>
       <c r="F170" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="G170" t="n">
-        <v>0.7425520906636431</v>
+        <v>0.7377956310164129</v>
       </c>
       <c r="H170" t="n">
-        <v>2616.4085</v>
+        <v>3064.9698</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>2.433616766265665</v>
+        <v>2.442460463395105</v>
       </c>
     </row>
     <row r="171">
@@ -6728,10 +6728,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>976.19293957</v>
+        <v>1143.42768531</v>
       </c>
       <c r="C171" t="n">
-        <v>-12.0239</v>
+        <v>-12.6468</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -6742,21 +6742,21 @@
         <v>2024</v>
       </c>
       <c r="F171" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="G171" t="n">
-        <v>7.871582235773249</v>
+        <v>7.908413424750183</v>
       </c>
       <c r="H171" t="n">
-        <v>7780.4111</v>
+        <v>9043.0715</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>-7.6</t>
+          <t>-7.3</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>12.54680410871863</v>
+        <v>12.64424023751222</v>
       </c>
     </row>
     <row r="172">
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>991.31014278</v>
+        <v>1136.55803633</v>
       </c>
       <c r="C172" t="n">
-        <v>16.5261</v>
+        <v>13.0177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -6780,21 +6780,21 @@
         <v>2024</v>
       </c>
       <c r="F172" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="G172" t="n">
-        <v>7.993480585391333</v>
+        <v>7.860900123371596</v>
       </c>
       <c r="H172" t="n">
-        <v>8982.4283</v>
+        <v>10500.1152</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>11.03610415437438</v>
+        <v>10.82424349334758</v>
       </c>
     </row>
     <row r="173">
@@ -6804,10 +6804,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>597.8838695000001</v>
+        <v>710.44407843</v>
       </c>
       <c r="C173" t="n">
-        <v>-7.1061</v>
+        <v>-3.0769</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -6818,21 +6818,21 @@
         <v>2024</v>
       </c>
       <c r="F173" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="G173" t="n">
-        <v>4.821067491314402</v>
+        <v>4.913721750463677</v>
       </c>
       <c r="H173" t="n">
-        <v>1828.5336</v>
+        <v>2139.7936</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-1.2</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>32.69745054178934</v>
+        <v>33.20152366237566</v>
       </c>
     </row>
     <row r="174">
@@ -6842,10 +6842,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>231.26136456</v>
+        <v>268.70103293</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.4385</v>
+        <v>-2.4996</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -6856,21 +6856,21 @@
         <v>2024</v>
       </c>
       <c r="F174" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="G174" t="n">
-        <v>1.86478796895728</v>
+        <v>1.858446216904163</v>
       </c>
       <c r="H174" t="n">
-        <v>593.2148</v>
+        <v>686.0294</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>-9.6</t>
+          <t>-8.8</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>38.98442260038017</v>
+        <v>39.16756817273428</v>
       </c>
     </row>
     <row r="175">
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>5105.8771146</v>
+        <v>6072.2249555</v>
       </c>
       <c r="C175" t="n">
-        <v>0.3805</v>
+        <v>0.9345</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -6894,21 +6894,21 @@
         <v>2024</v>
       </c>
       <c r="F175" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="G175" t="n">
-        <v>41.17150407892755</v>
+        <v>41.9979907545792</v>
       </c>
       <c r="H175" t="n">
-        <v>32513.687</v>
+        <v>38788.8048</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>15.70377765708331</v>
+        <v>15.6545812298398</v>
       </c>
     </row>
     <row r="176">
@@ -6918,10 +6918,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>323.2732853</v>
+        <v>385.3226926</v>
       </c>
       <c r="C176" t="n">
-        <v>52.5971</v>
+        <v>57.6615</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -6932,21 +6932,21 @@
         <v>2024</v>
       </c>
       <c r="F176" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="G176" t="n">
-        <v>2.606730848707461</v>
+        <v>2.665049302346184</v>
       </c>
       <c r="H176" t="n">
-        <v>2278.7226</v>
+        <v>2834.6798</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>60.8</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>14.18660109396379</v>
+        <v>13.5931646530236</v>
       </c>
     </row>
     <row r="177">
@@ -6956,10 +6956,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2.98162799</v>
+        <v>3.51631674</v>
       </c>
       <c r="C177" t="n">
-        <v>-67.7206</v>
+        <v>-63.2272</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -6970,21 +6970,21 @@
         <v>2024</v>
       </c>
       <c r="F177" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="G177" t="n">
-        <v>0.02404251144257054</v>
+        <v>0.02432028441287086</v>
       </c>
       <c r="H177" t="n">
-        <v>82.3411</v>
+        <v>100.111</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>3.62106893155423</v>
+        <v>3.512417956068763</v>
       </c>
     </row>
     <row r="178">
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1300.59312554</v>
+        <v>1536.93721913</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.1902</v>
+        <v>-1.1832</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -7008,13 +7008,13 @@
         <v>2024</v>
       </c>
       <c r="F178" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="G178" t="n">
-        <v>10.48739990629214</v>
+        <v>10.63008626861311</v>
       </c>
       <c r="H178" t="n">
-        <v>12721.7174</v>
+        <v>15068.7528</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>10.22340840191907</v>
+        <v>10.19949852206746</v>
       </c>
     </row>
     <row r="179">
@@ -7032,10 +7032,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>263.2383665</v>
+        <v>344.51316133</v>
       </c>
       <c r="C179" t="n">
-        <v>-35.3806</v>
+        <v>-27.5241</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -7046,21 +7046,21 @@
         <v>2024</v>
       </c>
       <c r="F179" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="G179" t="n">
-        <v>2.122636177258259</v>
+        <v>2.382793896866885</v>
       </c>
       <c r="H179" t="n">
-        <v>1286.2082</v>
+        <v>1587.4646</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>-11.9</t>
+          <t>-7.5</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>20.46623295513121</v>
+        <v>21.70210040148297</v>
       </c>
     </row>
     <row r="180">
@@ -7070,10 +7070,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>107.98162724</v>
+        <v>125.86774242</v>
       </c>
       <c r="C180" t="n">
-        <v>12.1015</v>
+        <v>11.4895</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -7084,21 +7084,21 @@
         <v>2024</v>
       </c>
       <c r="F180" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="G180" t="n">
-        <v>0.8707154337201827</v>
+        <v>0.8705527745092639</v>
       </c>
       <c r="H180" t="n">
-        <v>950.5948</v>
+        <v>1123.5749</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>11.35937491347523</v>
+        <v>11.2024345168266</v>
       </c>
     </row>
     <row r="181">
@@ -7108,10 +7108,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>370.23042998</v>
+        <v>434.88803281</v>
       </c>
       <c r="C181" t="n">
-        <v>1.1531</v>
+        <v>1.4963</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -7122,21 +7122,21 @@
         <v>2024</v>
       </c>
       <c r="F181" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="G181" t="n">
-        <v>2.985372212440882</v>
+        <v>3.007863462747418</v>
       </c>
       <c r="H181" t="n">
-        <v>1333.0941</v>
+        <v>1590.4697</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>27.77226528719915</v>
+        <v>27.34337113181093</v>
       </c>
     </row>
     <row r="182">
@@ -7146,10 +7146,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>236.78184222</v>
+        <v>277.8306344</v>
       </c>
       <c r="C182" t="n">
-        <v>-7.1363</v>
+        <v>-7.5899</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -7160,21 +7160,21 @@
         <v>2024</v>
       </c>
       <c r="F182" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="G182" t="n">
-        <v>1.909302625968199</v>
+        <v>1.921590273809163</v>
       </c>
       <c r="H182" t="n">
-        <v>442.2434</v>
+        <v>514.9458</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-7.6</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>53.54106861063387</v>
+        <v>53.95337419977015</v>
       </c>
     </row>
     <row r="183">
@@ -7184,10 +7184,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>3653.22767651</v>
+        <v>4320.87340209</v>
       </c>
       <c r="C183" t="n">
-        <v>5.7194</v>
+        <v>5.8088</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -7198,21 +7198,21 @@
         <v>2024</v>
       </c>
       <c r="F183" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="G183" t="n">
-        <v>29.45799023533015</v>
+        <v>29.88492727502065</v>
       </c>
       <c r="H183" t="n">
-        <v>24685.6313</v>
+        <v>29410.6922</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>14.79900445774705</v>
+        <v>14.69150529578491</v>
       </c>
     </row>
     <row r="184">
@@ -7222,10 +7222,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>687.18972793</v>
+        <v>815.1736175999999</v>
       </c>
       <c r="C184" t="n">
-        <v>-9.4764</v>
+        <v>-5.8079</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -7236,21 +7236,21 @@
         <v>2024</v>
       </c>
       <c r="F184" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="G184" t="n">
-        <v>5.541189897728978</v>
+        <v>5.63807406778174</v>
       </c>
       <c r="H184" t="n">
-        <v>1745.9499</v>
+        <v>2066.6008</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-4.8</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>39.35907484687848</v>
+        <v>39.44514187742499</v>
       </c>
     </row>
     <row r="185">
@@ -7260,10 +7260,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>25.12427361</v>
+        <v>27.34395399</v>
       </c>
       <c r="C185" t="n">
-        <v>-52.8336</v>
+        <v>-57.6533</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -7274,21 +7274,21 @@
         <v>2024</v>
       </c>
       <c r="F185" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="G185" t="n">
-        <v>0.2025908791373729</v>
+        <v>0.1891219668707247</v>
       </c>
       <c r="H185" t="n">
-        <v>198.2558</v>
+        <v>232.1497</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>-17.8</t>
+          <t>-18.6</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>12.67265502951238</v>
+        <v>11.7785868299636</v>
       </c>
     </row>
     <row r="186">
@@ -7298,10 +7298,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>908.05064725</v>
+        <v>1062.6728136</v>
       </c>
       <c r="C186" t="n">
-        <v>-12.839</v>
+        <v>-13.6763</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -7312,21 +7312,21 @@
         <v>2024</v>
       </c>
       <c r="F186" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="G186" t="n">
-        <v>7.322113338807807</v>
+        <v>7.349879710943701</v>
       </c>
       <c r="H186" t="n">
-        <v>6706.8273</v>
+        <v>7793.9039</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>-10.9</t>
+          <t>-10.7</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>13.53919829201507</v>
+        <v>13.63466662194796</v>
       </c>
     </row>
   </sheetData>

--- a/output/2.2结果.xlsx
+++ b/output/2.2结果.xlsx
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>133.0575564</v>
+        <v>154.86796302</v>
       </c>
       <c r="C153" t="n">
-        <v>13.7021</v>
+        <v>15.0916</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -6058,21 +6058,21 @@
         <v>2024</v>
       </c>
       <c r="F153" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G153" t="n">
-        <v>1.311359843135949</v>
+        <v>1.323008797327263</v>
       </c>
       <c r="H153" t="n">
-        <v>4031.2024</v>
+        <v>4632.0095</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>3.300691535607342</v>
+        <v>3.343429304711054</v>
       </c>
     </row>
     <row r="154">
@@ -6082,10 +6082,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>87.74072461</v>
+        <v>100.52666734</v>
       </c>
       <c r="C154" t="n">
-        <v>17.0866</v>
+        <v>16.0833</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -6096,21 +6096,21 @@
         <v>2024</v>
       </c>
       <c r="F154" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G154" t="n">
-        <v>0.8647360283343071</v>
+        <v>0.8587810071450067</v>
       </c>
       <c r="H154" t="n">
-        <v>1020.8564</v>
+        <v>1170.646</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>8.594815549963736</v>
+        <v>8.587281495857843</v>
       </c>
     </row>
     <row r="155">
@@ -6120,10 +6120,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>30.94555157</v>
+        <v>36.24823184</v>
       </c>
       <c r="C155" t="n">
-        <v>-7.3976</v>
+        <v>-7.8993</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -6134,21 +6134,21 @@
         <v>2024</v>
       </c>
       <c r="F155" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G155" t="n">
-        <v>0.30498646413283</v>
+        <v>0.3096620416301657</v>
       </c>
       <c r="H155" t="n">
-        <v>280.0762</v>
+        <v>330.369</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>11.0489758037277</v>
+        <v>10.97204393874728</v>
       </c>
     </row>
     <row r="156">
@@ -6158,10 +6158,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>6982.39248716</v>
+        <v>8035.435279060001</v>
       </c>
       <c r="C156" t="n">
-        <v>1.2026</v>
+        <v>2.3474</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -6172,21 +6172,21 @@
         <v>2024</v>
       </c>
       <c r="F156" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G156" t="n">
-        <v>68.81555143812759</v>
+        <v>68.64525985388809</v>
       </c>
       <c r="H156" t="n">
-        <v>84102.6185</v>
+        <v>97186.591</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>8.302229599617045</v>
+        <v>8.268049322833024</v>
       </c>
     </row>
     <row r="157">
@@ -6196,10 +6196,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>806.47786964</v>
+        <v>925.31360066</v>
       </c>
       <c r="C157" t="n">
-        <v>7.0951</v>
+        <v>8.0306</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -6210,13 +6210,13 @@
         <v>2024</v>
       </c>
       <c r="F157" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G157" t="n">
-        <v>7.948309898645668</v>
+        <v>7.904785535286277</v>
       </c>
       <c r="H157" t="n">
-        <v>8158.7571</v>
+        <v>9423.842000000001</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>9.884812842877746</v>
+        <v>9.818857326555348</v>
       </c>
     </row>
     <row r="158">
@@ -6234,10 +6234,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>313.56039829</v>
+        <v>364.57361893</v>
       </c>
       <c r="C158" t="n">
-        <v>-13.1971</v>
+        <v>-10.5941</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -6248,21 +6248,21 @@
         <v>2024</v>
       </c>
       <c r="F158" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G158" t="n">
-        <v>3.090320654011499</v>
+        <v>3.114486015778083</v>
       </c>
       <c r="H158" t="n">
-        <v>3116.2189</v>
+        <v>3607.6204</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>10.06220706414431</v>
+        <v>10.10565354741868</v>
       </c>
     </row>
     <row r="159">
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>215.15252775</v>
+        <v>240.98719112</v>
       </c>
       <c r="C159" t="n">
-        <v>-5.5042</v>
+        <v>-6.832</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -6286,21 +6286,21 @@
         <v>2024</v>
       </c>
       <c r="F159" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G159" t="n">
-        <v>2.120453679401426</v>
+        <v>2.058709675504496</v>
       </c>
       <c r="H159" t="n">
-        <v>2315.8501</v>
+        <v>2729.1422</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>-9.8</t>
+          <t>-8.2</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>9.290434115316875</v>
+        <v>8.830144179368888</v>
       </c>
     </row>
     <row r="160">
@@ -6310,10 +6310,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>175.03658324</v>
+        <v>205.73984935</v>
       </c>
       <c r="C160" t="n">
-        <v>-43.1828</v>
+        <v>-38.0759</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -6324,21 +6324,21 @@
         <v>2024</v>
       </c>
       <c r="F160" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G160" t="n">
-        <v>1.725087642904126</v>
+        <v>1.757598055420177</v>
       </c>
       <c r="H160" t="n">
-        <v>4547.3658</v>
+        <v>5143.7234</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>3.849186340804164</v>
+        <v>3.999823344894479</v>
       </c>
     </row>
     <row r="161">
@@ -6348,10 +6348,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>32.38213926</v>
+        <v>36.61999327</v>
       </c>
       <c r="C161" t="n">
-        <v>-48.2172</v>
+        <v>-48.6427</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -6362,21 +6362,21 @@
         <v>2024</v>
       </c>
       <c r="F161" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G161" t="n">
-        <v>0.3191448739126254</v>
+        <v>0.3128379318065829</v>
       </c>
       <c r="H161" t="n">
-        <v>1437.5316</v>
+        <v>1611.5771</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>-29.2</t>
+          <t>-29.0</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>2.252621038730557</v>
+        <v>2.272307869725873</v>
       </c>
     </row>
     <row r="162">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1056.88623464</v>
+        <v>1198.72030337</v>
       </c>
       <c r="C162" t="n">
-        <v>4.6204</v>
+        <v>1.9646</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -6400,21 +6400,21 @@
         <v>2024</v>
       </c>
       <c r="F162" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G162" t="n">
-        <v>10.41623042214575</v>
+        <v>10.24044919276498</v>
       </c>
       <c r="H162" t="n">
-        <v>6409.143</v>
+        <v>7360.4301</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>16.4902894917464</v>
+        <v>16.28600892996728</v>
       </c>
     </row>
     <row r="163">
@@ -6424,10 +6424,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>672.98414544</v>
+        <v>779.58494928</v>
       </c>
       <c r="C163" t="n">
-        <v>-24.2923</v>
+        <v>-19.7187</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -6438,21 +6438,21 @@
         <v>2024</v>
       </c>
       <c r="F163" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G163" t="n">
-        <v>6.632651367383587</v>
+        <v>6.659852212482263</v>
       </c>
       <c r="H163" t="n">
-        <v>3484.9061</v>
+        <v>4072.0293</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>25.9</t>
+          <t>26.7</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>19.31139967989381</v>
+        <v>19.14487573259849</v>
       </c>
     </row>
     <row r="164">
@@ -6462,10 +6462,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>331.16090838</v>
+        <v>377.9330445</v>
       </c>
       <c r="C164" t="n">
-        <v>6.9595</v>
+        <v>5.9529</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -6476,21 +6476,21 @@
         <v>2024</v>
       </c>
       <c r="F164" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G164" t="n">
-        <v>3.26378394895846</v>
+        <v>3.228613154869246</v>
       </c>
       <c r="H164" t="n">
-        <v>3809.3502</v>
+        <v>4384.0573</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>8.6933700235804</v>
+        <v>8.620622830363097</v>
       </c>
     </row>
     <row r="165">
@@ -6500,10 +6500,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>163.62252223</v>
+        <v>189.67851653</v>
       </c>
       <c r="C165" t="n">
-        <v>2.6653</v>
+        <v>3.2421</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -6514,21 +6514,21 @@
         <v>2024</v>
       </c>
       <c r="F165" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G165" t="n">
-        <v>1.612595412770117</v>
+        <v>1.620389014871765</v>
       </c>
       <c r="H165" t="n">
-        <v>1226.9102</v>
+        <v>1415.0991</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>13.33614491345821</v>
+        <v>13.40390341072226</v>
       </c>
     </row>
     <row r="166">
@@ -6538,10 +6538,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>81.69908961</v>
+        <v>92.96136600999999</v>
       </c>
       <c r="C166" t="n">
-        <v>11.8937</v>
+        <v>9.728300000000001</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -6552,13 +6552,13 @@
         <v>2024</v>
       </c>
       <c r="F166" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G166" t="n">
-        <v>0.8051921907632403</v>
+        <v>0.7941520159783244</v>
       </c>
       <c r="H166" t="n">
-        <v>769.9732</v>
+        <v>891.206</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>10.61064068333807</v>
+        <v>10.4309627639401</v>
       </c>
     </row>
     <row r="167">
@@ -6576,10 +6576,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>3200.05815488</v>
+        <v>3678.30700761</v>
       </c>
       <c r="C167" t="n">
-        <v>-2.436</v>
+        <v>-1.8144</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -6590,21 +6590,21 @@
         <v>2024</v>
       </c>
       <c r="F167" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G167" t="n">
-        <v>31.53844000707464</v>
+        <v>31.42310672550195</v>
       </c>
       <c r="H167" t="n">
-        <v>34528.3742</v>
+        <v>39723.2782</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>9.267908579605235</v>
+        <v>9.259827421821393</v>
       </c>
     </row>
     <row r="168">
@@ -6614,10 +6614,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>246.26296309</v>
+        <v>277.27666118</v>
       </c>
       <c r="C168" t="n">
-        <v>10.7124</v>
+        <v>8.563599999999999</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -6628,21 +6628,21 @@
         <v>2024</v>
       </c>
       <c r="F168" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G168" t="n">
-        <v>2.427065169279603</v>
+        <v>2.368724007736167</v>
       </c>
       <c r="H168" t="n">
-        <v>1922.6441</v>
+        <v>2207.9337</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>12.80855687695918</v>
+        <v>12.5581968869808</v>
       </c>
     </row>
     <row r="169">
@@ -6652,10 +6652,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>560.9600741200001</v>
+        <v>651.94321785</v>
       </c>
       <c r="C169" t="n">
-        <v>-27.1547</v>
+        <v>-22.5375</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -6666,21 +6666,21 @@
         <v>2024</v>
       </c>
       <c r="F169" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G169" t="n">
-        <v>5.528588790493775</v>
+        <v>5.569432152097241</v>
       </c>
       <c r="H169" t="n">
-        <v>1951.9144</v>
+        <v>2247.4507</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>24.8</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>28.73896898962373</v>
+        <v>29.00812097235326</v>
       </c>
     </row>
     <row r="170">
@@ -6690,10 +6690,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>74.86067558000001</v>
+        <v>86.11033431</v>
       </c>
       <c r="C170" t="n">
-        <v>25.4198</v>
+        <v>23.252</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -6704,21 +6704,21 @@
         <v>2024</v>
       </c>
       <c r="F170" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="G170" t="n">
-        <v>0.7377956310164129</v>
+        <v>0.735624900149356</v>
       </c>
       <c r="H170" t="n">
-        <v>3064.9698</v>
+        <v>3523.3869</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>2.442460463395105</v>
+        <v>2.443964763279332</v>
       </c>
     </row>
     <row r="171">
@@ -6728,10 +6728,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1143.42768531</v>
+        <v>1318.46901656</v>
       </c>
       <c r="C171" t="n">
-        <v>-12.6468</v>
+        <v>-11.6487</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -6742,21 +6742,21 @@
         <v>2024</v>
       </c>
       <c r="F171" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="G171" t="n">
-        <v>7.908413424750183</v>
+        <v>8.056482484059146</v>
       </c>
       <c r="H171" t="n">
-        <v>9043.0715</v>
+        <v>10422.1767</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>-7.3</t>
+          <t>-6.1</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>12.64424023751222</v>
+        <v>12.6506108513781</v>
       </c>
     </row>
     <row r="172">
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1136.55803633</v>
+        <v>1286.28563565</v>
       </c>
       <c r="C172" t="n">
-        <v>13.0177</v>
+        <v>13.0533</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -6780,21 +6780,21 @@
         <v>2024</v>
       </c>
       <c r="F172" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="G172" t="n">
-        <v>7.860900123371596</v>
+        <v>7.859826482801174</v>
       </c>
       <c r="H172" t="n">
-        <v>10500.1152</v>
+        <v>12082.9432</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>10.82424349334758</v>
+        <v>10.64546621099733</v>
       </c>
     </row>
     <row r="173">
@@ -6804,10 +6804,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>710.44407843</v>
+        <v>799.41159093</v>
       </c>
       <c r="C173" t="n">
-        <v>-3.0769</v>
+        <v>-3.9232</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -6818,21 +6818,21 @@
         <v>2024</v>
       </c>
       <c r="F173" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="G173" t="n">
-        <v>4.913721750463677</v>
+        <v>4.884790919611506</v>
       </c>
       <c r="H173" t="n">
-        <v>2139.7936</v>
+        <v>2450.8225</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>33.20152366237566</v>
+        <v>32.61809416757027</v>
       </c>
     </row>
     <row r="174">
@@ -6842,10 +6842,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>268.70103293</v>
+        <v>305.35867351</v>
       </c>
       <c r="C174" t="n">
-        <v>-2.4996</v>
+        <v>-6.3614</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -6856,21 +6856,21 @@
         <v>2024</v>
       </c>
       <c r="F174" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="G174" t="n">
-        <v>1.858446216904163</v>
+        <v>1.865888976979913</v>
       </c>
       <c r="H174" t="n">
-        <v>686.0294</v>
+        <v>776.4072</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>-8.8</t>
+          <t>-8.9</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>39.16756817273428</v>
+        <v>39.32970656506019</v>
       </c>
     </row>
     <row r="175">
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>6072.2249555</v>
+        <v>6961.858588349999</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9345</v>
+        <v>0.6561</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -6894,21 +6894,21 @@
         <v>2024</v>
       </c>
       <c r="F175" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="G175" t="n">
-        <v>41.9979907545792</v>
+        <v>42.54031840647814</v>
       </c>
       <c r="H175" t="n">
-        <v>38788.8048</v>
+        <v>44912.2789</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>15.6545812298398</v>
+        <v>15.50101388498013</v>
       </c>
     </row>
     <row r="176">
@@ -6918,10 +6918,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>385.3226926</v>
+        <v>441.1787631299999</v>
       </c>
       <c r="C176" t="n">
-        <v>57.6615</v>
+        <v>58.4729</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -6932,21 +6932,21 @@
         <v>2024</v>
       </c>
       <c r="F176" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="G176" t="n">
-        <v>2.665049302346184</v>
+        <v>2.695815322812309</v>
       </c>
       <c r="H176" t="n">
-        <v>2834.6798</v>
+        <v>3341.7126</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>60.8</t>
+          <t>62.2</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>13.5931646530236</v>
+        <v>13.20217552909846</v>
       </c>
     </row>
     <row r="177">
@@ -6956,10 +6956,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>3.51631674</v>
+        <v>4.22806569</v>
       </c>
       <c r="C177" t="n">
-        <v>-63.2272</v>
+        <v>-58.064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -6970,21 +6970,21 @@
         <v>2024</v>
       </c>
       <c r="F177" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="G177" t="n">
-        <v>0.02432028441287086</v>
+        <v>0.02583552343293637</v>
       </c>
       <c r="H177" t="n">
-        <v>100.111</v>
+        <v>113.4791</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>3.512417956068763</v>
+        <v>3.725854091193885</v>
       </c>
     </row>
     <row r="178">
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1536.93721913</v>
+        <v>1777.60663419</v>
       </c>
       <c r="C178" t="n">
-        <v>-1.1832</v>
+        <v>-1.5578</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -7008,21 +7008,21 @@
         <v>2024</v>
       </c>
       <c r="F178" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="G178" t="n">
-        <v>10.63008626861311</v>
+        <v>10.86203508161645</v>
       </c>
       <c r="H178" t="n">
-        <v>15068.7528</v>
+        <v>17427.6131</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>10.19949852206746</v>
+        <v>10.19994318206433</v>
       </c>
     </row>
     <row r="179">
@@ -7032,10 +7032,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>344.51316133</v>
+        <v>411.44808874</v>
       </c>
       <c r="C179" t="n">
-        <v>-27.5241</v>
+        <v>-21.5347</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -7046,21 +7046,21 @@
         <v>2024</v>
       </c>
       <c r="F179" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="G179" t="n">
-        <v>2.382793896866885</v>
+        <v>2.514146542997337</v>
       </c>
       <c r="H179" t="n">
-        <v>1587.4646</v>
+        <v>1884.7783</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>-7.5</t>
+          <t>-6.6</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>21.70210040148297</v>
+        <v>21.83005230588659</v>
       </c>
     </row>
     <row r="180">
@@ -7070,10 +7070,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>125.86774242</v>
+        <v>143.58551586</v>
       </c>
       <c r="C180" t="n">
-        <v>11.4895</v>
+        <v>9.3065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -7084,21 +7084,21 @@
         <v>2024</v>
       </c>
       <c r="F180" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="G180" t="n">
-        <v>0.8705527745092639</v>
+        <v>0.8773768506967747</v>
       </c>
       <c r="H180" t="n">
-        <v>1123.5749</v>
+        <v>1302.1205</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>11.2024345168266</v>
+        <v>11.02705286185111</v>
       </c>
     </row>
     <row r="181">
@@ -7108,10 +7108,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>434.88803281</v>
+        <v>494.25359154</v>
       </c>
       <c r="C181" t="n">
-        <v>1.4963</v>
+        <v>-0.222</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -7122,21 +7122,21 @@
         <v>2024</v>
       </c>
       <c r="F181" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="G181" t="n">
-        <v>3.007863462747418</v>
+        <v>3.020128158426183</v>
       </c>
       <c r="H181" t="n">
-        <v>1590.4697</v>
+        <v>1809.3172</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-4.1</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>27.34337113181093</v>
+        <v>27.31713331084234</v>
       </c>
     </row>
     <row r="182">
@@ -7146,10 +7146,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>277.8306344</v>
+        <v>320.62121632</v>
       </c>
       <c r="C182" t="n">
-        <v>-7.5899</v>
+        <v>-7.4559</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -7160,21 +7160,21 @@
         <v>2024</v>
       </c>
       <c r="F182" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="G182" t="n">
-        <v>1.921590273809163</v>
+        <v>1.959150485037029</v>
       </c>
       <c r="H182" t="n">
-        <v>514.9458</v>
+        <v>591.5001</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>-7.6</t>
+          <t>-7.9</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>53.95337419977015</v>
+        <v>54.20476113528975</v>
       </c>
     </row>
     <row r="183">
@@ -7184,10 +7184,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>4320.87340209</v>
+        <v>4936.499460980001</v>
       </c>
       <c r="C183" t="n">
-        <v>5.8088</v>
+        <v>4.8022</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -7198,21 +7198,21 @@
         <v>2024</v>
       </c>
       <c r="F183" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="G183" t="n">
-        <v>29.88492727502065</v>
+        <v>30.16439593227477</v>
       </c>
       <c r="H183" t="n">
-        <v>29410.6922</v>
+        <v>34048.6629</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>14.5</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>14.69150529578491</v>
+        <v>14.49836510607881</v>
       </c>
     </row>
     <row r="184">
@@ -7222,10 +7222,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>815.1736175999999</v>
+        <v>916.94823497</v>
       </c>
       <c r="C184" t="n">
-        <v>-5.8079</v>
+        <v>-7.4395</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -7236,21 +7236,21 @@
         <v>2024</v>
       </c>
       <c r="F184" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="G184" t="n">
-        <v>5.63807406778174</v>
+        <v>5.602996582429418</v>
       </c>
       <c r="H184" t="n">
-        <v>2066.6008</v>
+        <v>2373.0967</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>-4.8</t>
+          <t>-4.1</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>39.44514187742499</v>
+        <v>38.63931187338468</v>
       </c>
     </row>
     <row r="185">
@@ -7260,10 +7260,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>27.34395399</v>
+        <v>29.93688761</v>
       </c>
       <c r="C185" t="n">
-        <v>-57.6533</v>
+        <v>-59.0562</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -7274,21 +7274,21 @@
         <v>2024</v>
       </c>
       <c r="F185" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1891219668707247</v>
+        <v>0.1829288421858312</v>
       </c>
       <c r="H185" t="n">
-        <v>232.1497</v>
+        <v>282.2164</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>-18.6</t>
+          <t>-16.8</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>11.7785868299636</v>
+        <v>10.60777743958182</v>
       </c>
     </row>
     <row r="186">
@@ -7298,10 +7298,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1062.6728136</v>
+        <v>1225.95476324</v>
       </c>
       <c r="C186" t="n">
-        <v>-13.6763</v>
+        <v>-12.6611</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -7312,21 +7312,21 @@
         <v>2024</v>
       </c>
       <c r="F186" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="G186" t="n">
-        <v>7.349879710943701</v>
+        <v>7.49117571383026</v>
       </c>
       <c r="H186" t="n">
-        <v>7793.9039</v>
+        <v>9002.146699999999</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>-10.7</t>
+          <t>-9.2</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>13.63466662194796</v>
+        <v>13.61847128352174</v>
       </c>
     </row>
   </sheetData>
